--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.853231233282789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.291169353304569</v>
+        <v>-2.291169353304571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.07921700084385778</v>
@@ -649,7 +649,7 @@
         <v>-0.4389396840969607</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2338143391554699</v>
+        <v>-0.2338143391554701</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.834524422886022</v>
+        <v>-3.657617359026955</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.695425732999685</v>
+        <v>-4.903297655002965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.934531973858869</v>
+        <v>-6.700624378806543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.844705737543928</v>
+        <v>-6.348657318073704</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6501654490692117</v>
+        <v>-0.6195400740715307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5347641233539756</v>
+        <v>-0.5248315063106676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7531962031435415</v>
+        <v>-0.7723822637006146</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4867404408637573</v>
+        <v>-0.4910196524927514</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.848333392620372</v>
+        <v>3.25479478650524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.223653034786698</v>
+        <v>3.911185151957276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3237261285914871</v>
+        <v>0.6706211798410853</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.394853812132968</v>
+        <v>0.9675294911185023</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.094085849359705</v>
+        <v>1.147237903402829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9765521972352059</v>
+        <v>0.8523360865556253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.190646595646425</v>
+        <v>0.1821127892511172</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1728439746318252</v>
+        <v>0.1758768069345626</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.551184323020894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9957371659993608</v>
+        <v>0.9957371659993595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4615368533093058</v>
@@ -749,7 +749,7 @@
         <v>0.5214565441267778</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1518799126047151</v>
+        <v>0.1518799126047149</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4970951714594045</v>
+        <v>-0.4521428357792063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7025895758349742</v>
+        <v>0.6055928465088978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2523064743668487</v>
+        <v>-0.1093269993565949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.237032048477717</v>
+        <v>-2.064221061565349</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09526698094085778</v>
+        <v>-0.08851424014196854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09151495084789374</v>
+        <v>0.0695976612590581</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009100445792617701</v>
+        <v>-0.03346210181410427</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2654539470573465</v>
+        <v>-0.2437776951811266</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.756673707807598</v>
+        <v>5.98470119565611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.927982916469881</v>
+        <v>7.868213589471718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.956487175613418</v>
+        <v>7.112786680734888</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.840538613435915</v>
+        <v>3.511170183988868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.415189873654033</v>
+        <v>1.500974340337502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.504721319135626</v>
+        <v>1.536958648992512</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.346633508856201</v>
+        <v>1.321933142186626</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7428775417474555</v>
+        <v>0.729032468129057</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9915084036220289</v>
+        <v>-0.4674395079631088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.989316852744063</v>
+        <v>-4.796080113478101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.413187183879534</v>
+        <v>-1.040553359382317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.904790106128567</v>
+        <v>-4.850775678988018</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2006182261991702</v>
+        <v>-0.1159282575205652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3877737957522353</v>
+        <v>-0.3746533410194434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2631073712564805</v>
+        <v>-0.2102626250861286</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3545753923697435</v>
+        <v>-0.3655147970071317</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.291513647846626</v>
+        <v>6.399257134136985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.674542980666008</v>
+        <v>5.028383520854527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.581883545122321</v>
+        <v>5.712892880037939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.8115033307249</v>
+        <v>2.703460314667833</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.942403986519931</v>
+        <v>2.011622559401465</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5848647021866418</v>
+        <v>0.6175435934248443</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.088869451347553</v>
+        <v>1.988604802568312</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.330657010986408</v>
+        <v>0.3003064443455772</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.67157988065148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.070187902919972</v>
+        <v>-2.070187902919969</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.0786623515582929</v>
@@ -949,7 +949,7 @@
         <v>-0.4580665347922811</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2428897910938574</v>
+        <v>-0.2428897910938571</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.537440917451801</v>
+        <v>-3.124207918398437</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.837076863475914</v>
+        <v>-1.579766979114975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.909586159676772</v>
+        <v>-10.02478853586683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.644939302034034</v>
+        <v>-5.942405235019074</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5333479455152326</v>
+        <v>-0.498339633121045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2379219216665307</v>
+        <v>-0.2241542671685263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6636603874464906</v>
+        <v>-0.678302631354712</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4963152997034045</v>
+        <v>-0.5286420157063575</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.589080769382097</v>
+        <v>2.681926079317056</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.024006470233269</v>
+        <v>5.828806074027584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.614101850951413</v>
+        <v>-1.739781053707766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.101373117862168</v>
+        <v>0.6690901493258987</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7379334280726645</v>
+        <v>0.7864387011749867</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.464715614219247</v>
+        <v>1.296320291151243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1353020238337282</v>
+        <v>-0.1665379351463259</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2049169144057491</v>
+        <v>0.1147921153936435</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.236494215369828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.286320204051225</v>
+        <v>2.28632020405122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.851749599181037</v>
@@ -1049,7 +1049,7 @@
         <v>0.5242140112068372</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2443347650084559</v>
+        <v>0.2443347650084555</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6193859829027409</v>
+        <v>-0.6273563209803923</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.545003254061943</v>
+        <v>-2.94651655789095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.741009065910084</v>
+        <v>-1.966609734391666</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.107194681210844</v>
+        <v>-1.810664835682408</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1712534805142805</v>
+        <v>-0.1738442860830433</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3134599802487355</v>
+        <v>-0.2630409279048783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2324530183623322</v>
+        <v>-0.2596609071296117</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1820609487317773</v>
+        <v>-0.1481024791140001</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.273118166722563</v>
+        <v>9.084888292526056</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.224559635253049</v>
+        <v>8.960140142904017</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.622858383113227</v>
+        <v>8.307840203201794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.162067996304874</v>
+        <v>6.434053907669638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.923290393237235</v>
+        <v>3.181096363716901</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.322912930081553</v>
+        <v>1.496704765833815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.189722271822696</v>
+        <v>1.973240504785762</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8863951792556741</v>
+        <v>0.9245338774230187</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.1767246790433594</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.827940706191985</v>
+        <v>-3.82794070619199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.39303278103444</v>
@@ -1149,7 +1149,7 @@
         <v>0.02698926073642036</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2669294919168477</v>
+        <v>-0.2669294919168481</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.07367681435773</v>
+        <v>-5.648218901704959</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.964283872735149</v>
+        <v>-0.6594198681904107</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.590408587853704</v>
+        <v>-3.929970779317789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.920747701242639</v>
+        <v>-7.914970126078244</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7662372503294442</v>
+        <v>-0.7676643744638997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1291319026277121</v>
+        <v>-0.09662562245835425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5283574985806766</v>
+        <v>-0.4769428403160625</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4663668697493092</v>
+        <v>-0.4632638924995552</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.135488092311594</v>
+        <v>1.052081337591116</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.544839730492029</v>
+        <v>8.595000205513777</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.053303097651536</v>
+        <v>5.05279581014428</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5643303158070742</v>
+        <v>0.207532509176554</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4135539755091003</v>
+        <v>0.3194001501508992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.851276744933575</v>
+        <v>1.7038574024269</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.85681957366157</v>
+        <v>1.107753567458877</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06435273470946193</v>
+        <v>0.03378667552340614</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.130374872784059</v>
+        <v>-3.207620322749621</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.138365708586287</v>
+        <v>-2.828756583430748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.592272208699028</v>
+        <v>-6.574600694921965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.550398653371337</v>
+        <v>-5.474960496576054</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3763857059094257</v>
+        <v>-0.3679147060962713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3258581561184097</v>
+        <v>-0.2911351319241684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5182251569422867</v>
+        <v>-0.515467633042173</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5320068664083503</v>
+        <v>-0.5286069181620968</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.425873854031794</v>
+        <v>2.562587546878962</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.808730552298901</v>
+        <v>3.336065305201716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3571991015600267</v>
+        <v>0.2905285839895364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.6462599022963963</v>
+        <v>-0.4747840370481036</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4494112888105284</v>
+        <v>0.4868379440935849</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4255946271740859</v>
+        <v>0.5079681572032839</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04475372443250691</v>
+        <v>0.03347377551844867</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.08180407022893006</v>
+        <v>-0.06232550289643176</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.1467052290599596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.4971101904841547</v>
+        <v>-0.4971101904841534</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.06770903678571293</v>
@@ -1349,7 +1349,7 @@
         <v>-0.01638812924292454</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.07567378284759661</v>
+        <v>-0.07567378284759639</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.66027706452922</v>
+        <v>-2.822946620748642</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.173150464991354</v>
+        <v>-3.095729076341909</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.285389230652151</v>
+        <v>-2.994681703670786</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.670959871356438</v>
+        <v>-2.634005266711223</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3860574748929316</v>
+        <v>-0.3877457047712224</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4112823067671196</v>
+        <v>-0.4016619008197015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3208935067773767</v>
+        <v>-0.2891513096048352</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3353721683323689</v>
+        <v>-0.3340490744172033</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.893202683682818</v>
+        <v>2.056432172115435</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.776668470800751</v>
+        <v>1.704829925219121</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.486625861558476</v>
+        <v>2.808744150093334</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.398183999539929</v>
+        <v>1.504897545698521</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4058867989491423</v>
+        <v>0.4820082070865818</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3663498517404261</v>
+        <v>0.3571221439566136</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.322660624697912</v>
+        <v>0.3509830996760854</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2620557205139183</v>
+        <v>0.2709465457770733</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6526985893170212</v>
+        <v>-0.5814997343520362</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1834459097895089</v>
+        <v>-0.1537993836081294</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.936364921036709</v>
+        <v>-1.905895089359156</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.342635373790185</v>
+        <v>-2.259855139272341</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1073510211757825</v>
+        <v>-0.09326028792863239</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.02255910205759654</v>
+        <v>-0.02058530903070131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2161362580276692</v>
+        <v>-0.206684201708897</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2527195879614682</v>
+        <v>-0.245550883719179</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.63803353328432</v>
+        <v>1.588627785117399</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.422386333042539</v>
+        <v>2.494887549381024</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8514689686293101</v>
+        <v>0.7343947300803888</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.2513995708748614</v>
+        <v>-0.06803537130833497</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3251995681888217</v>
+        <v>0.3185870801638073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3718973803882649</v>
+        <v>0.3857012158694349</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1114859587461387</v>
+        <v>0.09578815720499048</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.03295490845542912</v>
+        <v>-0.01667467661320104</v>
       </c>
     </row>
     <row r="31">
